--- a/biology/Zoologie/Dipodillus_rupicola/Dipodillus_rupicola.xlsx
+++ b/biology/Zoologie/Dipodillus_rupicola/Dipodillus_rupicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipodillus rupicola ou, selon les classifications, Dipodillus (Petteromys) rupicola ou encore Gerbillus rupicola, est une gerbille décrite en 2002 par l'Institut de Recherche pour le Développement de Bamako d'après des études morphologiques et génétiques.
 </t>
